--- a/decisionTable_v5.xlsx
+++ b/decisionTable_v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ch0ng\OneDrive\Desktop\STesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34481ED-F3BB-4272-BB54-EB42067A82F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{C34481ED-F3BB-4272-BB54-EB42067A82F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{CCB59767-4348-46B1-87B7-B1BF96437C90}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1244C70F-45B3-48C8-9C2D-A275342B84FE}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" activeTab="1" xr2:uid="{1244C70F-45B3-48C8-9C2D-A275342B84FE}"/>
   </bookViews>
   <sheets>
     <sheet name="VIP" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="30">
   <si>
     <t>Member type</t>
   </si>
@@ -805,7 +805,7 @@
       <selection activeCell="K4" sqref="K4:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="43.5546875" customWidth="1"/>
     <col min="4" max="12" width="15.77734375" customWidth="1"/>
@@ -813,7 +813,7 @@
     <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -853,7 +853,7 @@
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
     </row>
-    <row r="3" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:41" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -893,7 +893,7 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
     </row>
-    <row r="4" spans="3:41" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:41" ht="20.350000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
     </row>
-    <row r="5" spans="3:41" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:41" ht="18.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
     </row>
-    <row r="7" spans="3:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:41" ht="15.65" x14ac:dyDescent="0.3">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="K7" s="1"/>
@@ -1302,7 +1302,7 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
     </row>
-    <row r="9" spans="3:41" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:41" ht="18.8" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
     </row>
-    <row r="10" spans="3:41" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:41" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
     </row>
-    <row r="11" spans="3:41" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:41" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
     </row>
-    <row r="12" spans="3:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:41" ht="15.65" x14ac:dyDescent="0.3">
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1722,7 +1722,7 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
     </row>
-    <row r="14" spans="3:41" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:41" ht="18.8" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
     </row>
-    <row r="15" spans="3:41" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:41" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
@@ -1948,7 +1948,7 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
     </row>
-    <row r="16" spans="3:41" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:41" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
     </row>
-    <row r="17" spans="3:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:41" ht="15.65" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2141,7 +2141,7 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
     </row>
-    <row r="19" spans="3:41" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:41" ht="18.8" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
@@ -2254,7 +2254,7 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
     </row>
-    <row r="20" spans="3:41" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:41" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C20" s="7" t="s">
         <v>8</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
     </row>
-    <row r="21" spans="3:41" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:41" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
     </row>
-    <row r="22" spans="3:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:41" ht="15.65" x14ac:dyDescent="0.3">
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2508,7 +2508,7 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
     </row>
-    <row r="23" spans="3:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:41" ht="15.65" x14ac:dyDescent="0.3">
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2536,7 +2536,7 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
     </row>
-    <row r="24" spans="3:41" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:41" ht="20.350000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C24" s="9" t="s">
         <v>2</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="AK24" s="9"/>
       <c r="AL24" s="10"/>
     </row>
-    <row r="25" spans="3:41" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:41" ht="18.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C25" s="15" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="3:41" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:41" ht="15.65" x14ac:dyDescent="0.3">
       <c r="E30" s="2"/>
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
@@ -2965,22 +2965,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AF2FC4-F11D-49B3-AA9C-409D2B0F8638}">
-  <dimension ref="C4:AA25"/>
+  <dimension ref="C4:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="52.21875" customWidth="1"/>
     <col min="4" max="15" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:27" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.3">
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="3:27" ht="20.100000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:27" ht="20.05" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="3:27" ht="18.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:27" ht="18.8" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:27" ht="18.149999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:27" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="3:27" ht="18.149999999999999" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:27" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="3:27" ht="18.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:27" ht="18.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
@@ -3317,161 +3317,161 @@
       <c r="Z10" s="27"/>
       <c r="AA10" s="11"/>
     </row>
-    <row r="11" spans="3:27" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:27" ht="18.8" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:27" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="R11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="U11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="X11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y11" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA11" s="29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:27" ht="18" x14ac:dyDescent="0.35">
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="D12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>11</v>
+      <c r="E12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="31" t="s">
+      <c r="I12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="30" t="s">
-        <v>11</v>
-      </c>
       <c r="O12" s="31" t="s">
         <v>12</v>
       </c>
       <c r="P12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="T12" s="36" t="s">
+      <c r="Q12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="30" t="s">
-        <v>11</v>
-      </c>
       <c r="V12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="W12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="X12" s="31" t="s">
-        <v>12</v>
+      <c r="W12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="Y12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="Z12" s="31" t="s">
-        <v>12</v>
+      <c r="Z12" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="AA12" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="3:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:27" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:27" ht="18.149999999999999" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:27" ht="18.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
@@ -3577,7 +3577,7 @@
       <c r="Z15" s="27"/>
       <c r="AA15" s="11"/>
     </row>
-    <row r="16" spans="3:27" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:27" ht="18.8" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C16" s="7" t="s">
         <v>8</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="3:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:27" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:27" ht="20.100000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:27" ht="20.05" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C20" s="9" t="s">
         <v>2</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="Z20" s="9"/>
       <c r="AA20" s="10"/>
     </row>
-    <row r="21" spans="3:27" ht="18.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:27" ht="18.8" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C21" s="15" t="s">
         <v>18</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:27" ht="18.149999999999999" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:27" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:27" ht="18.149999999999999" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:27" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C23" s="15" t="s">
         <v>20</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:27" ht="18.149999999999999" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:27" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C24" s="14" t="s">
         <v>3</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:27" ht="18.149999999999999" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:27" ht="18.2" x14ac:dyDescent="0.35">
       <c r="C25" s="13" t="s">
         <v>21</v>
       </c>
@@ -3867,6 +3867,266 @@
       </c>
       <c r="AA25" s="21" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="11:35" ht="18.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K33" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="11"/>
+    </row>
+    <row r="34" spans="11:35" ht="18.8" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="K34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="U34" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="V34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="W34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB34" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG34" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI34" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="11:35" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="K35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="U35" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="V35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="W35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="X35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB35" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE35" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH35" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI35" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="11:35" ht="18.2" x14ac:dyDescent="0.35">
+      <c r="K36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="M36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="R36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="T36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="U36" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="V36" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="W36" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="X36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z36" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB36" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD36" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF36" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH36" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI36" s="29" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3883,13 +4143,13 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="45.21875" customWidth="1"/>
     <col min="4" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:7" ht="20.350000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
@@ -3906,7 +4166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:7" ht="18.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C7" s="7" t="s">
         <v>0</v>
       </c>
@@ -3949,7 +4209,7 @@
       <c r="F10" s="27"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="3:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:7" ht="18.8" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
@@ -3969,7 +4229,7 @@
     <row r="12" spans="3:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="3:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:7" ht="20.350000000000001" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="9" t="s">
         <v>2</v>
       </c>
@@ -3978,7 +4238,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="3:7" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:7" ht="18.649999999999999" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C14" s="15" t="s">
         <v>20</v>
       </c>
@@ -4005,7 +4265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>27</v>
       </c>
